--- a/doc/内部設計/05_ファイル構成一覧表_メガネのやばいシステム屋さん.xlsx
+++ b/doc/内部設計/05_ファイル構成一覧表_メガネのやばいシステム屋さん.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\講師\SEプラス\2022_Dojo\6月資料\配布物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5A107C-E402-49FA-9027-A5C57B9445DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6214EF6-FDFE-4C10-9C7A-2816582BF3C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="58">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -68,6 +68,317 @@
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>jsp</t>
+  </si>
+  <si>
+    <t>servlet</t>
+  </si>
+  <si>
+    <t>ログイン画面用</t>
+  </si>
+  <si>
+    <t>ホーム画面用</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終電時間表示用</t>
+    <rPh sb="0" eb="4">
+      <t>シュウデンジカン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/jsp</t>
+  </si>
+  <si>
+    <t>ログイン画面jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面jsp</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終電時間表示jsp</t>
+    <rPh sb="0" eb="4">
+      <t>シュウデンジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー表示画面jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー（日時詳細）画面jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー（登録）画面jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー（更新）画面jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最寄り駅変更画面jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー表示画面用</t>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー（日時詳細）画面用</t>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー（登録）画面用</t>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー（更新）画面用</t>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最寄り駅変更画面用</t>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッター画面jsp</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ関連のデータアクセス用DAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定関連のデータアクセス用DAO</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終電関連のデータアクセス用DAO</t>
+    <rPh sb="0" eb="2">
+      <t>シュウデン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ関連のデータ操作モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ1行分のデータを持つ、エンティティモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定関連のデータ操作モデル</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定1行分のデータを持つ、エンティティモデル</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終電関連のデータ操作モデル</t>
+    <rPh sb="0" eb="2">
+      <t>シュウデン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終電1行分のデータを持つ、エンティティモデル</t>
+    <rPh sb="0" eb="2">
+      <t>シュウデン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/css</t>
+  </si>
+  <si>
+    <t>ログイン画面用css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面用css</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終電時間表示用css</t>
+    <rPh sb="0" eb="4">
+      <t>シュウデンジカン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー表示画面用css</t>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー（日時詳細）画面用css</t>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー（登録）画面用css</t>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー（更新）画面用css</t>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最寄り駅変更画面用css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー新規登録画面jsp</t>
+    <rPh sb="4" eb="6">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー新規登録画面用</t>
+    <rPh sb="4" eb="6">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー新規登録画面用css</t>
+    <rPh sb="4" eb="6">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>javascript</t>
+  </si>
+  <si>
+    <t>WebContent/js</t>
+  </si>
+  <si>
+    <t>全画面共通画面用css</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンガメン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>キョウツウガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全画面共通画面用js</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンガメン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>キョウツウガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面用js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー表示画面用js</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -75,7 +386,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +399,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -142,10 +461,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,499 +783,749 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="C31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="C32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="C33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="C34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="C35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="C36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="C37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="C39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="C40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="C41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="C42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="C43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="C44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
   </sheetData>
@@ -1137,18 +1706,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1171,6 +1740,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1185,12 +1762,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/内部設計/05_ファイル構成一覧表_メガネのやばいシステム屋さん.xlsx
+++ b/doc/内部設計/05_ファイル構成一覧表_メガネのやばいシステム屋さん.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6214EF6-FDFE-4C10-9C7A-2816582BF3C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08595D5E-E187-4736-B9DF-FDEC655C7408}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="112">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -361,7 +361,94 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全画面共通画面用js</t>
+    <t>ホーム画面用js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー表示画面用js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面用js</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー新規登録画面用js</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最寄り駅変更画面用js</t>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮野</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>餐場</t>
+    <rPh sb="0" eb="2">
+      <t>アイバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武村</t>
+    <rPh sb="0" eb="2">
+      <t>タケムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片平</t>
+    <rPh sb="0" eb="2">
+      <t>カタヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武村・久保</t>
+    <rPh sb="0" eb="2">
+      <t>タケムラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>久保</t>
+    <rPh sb="0" eb="2">
+      <t>クボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全画面共通画面用js（ハンバーガーメニュー、+ボタン）</t>
     <rPh sb="0" eb="3">
       <t>ゼンガメン</t>
     </rPh>
@@ -374,11 +461,179 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ホーム画面用js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カレンダー表示画面用js</t>
+    <t>LoginServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HomeServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LastTrainServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CalenderServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserRegisterServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CalenderDetailServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CalenderRegisterServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CalenderUpdateServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChangeNearestServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>last_train.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calender.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_register.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calender_detail.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calender_register.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calender_update.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>change_nearest.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>header.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UsersDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlansDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LastTrainDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlanBeans.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Plan.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LastTrainBeans.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LastTrain.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserBeans].java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>last_train.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calender.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_register.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calender_detail.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calender_register.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calender_update.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>change_nearest.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calender.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_register.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>change_nearest.js</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -386,7 +641,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +662,43 @@
       <color rgb="FF1D1C1D"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -449,12 +741,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -467,8 +762,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -781,17 +1089,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G44"/>
+  <dimension ref="B2:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1"/>
     <col min="6" max="6" width="58.83203125" customWidth="1"/>
     <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
@@ -827,15 +1135,19 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B49" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -844,11 +1156,15 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
@@ -861,11 +1177,15 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
@@ -878,11 +1198,15 @@
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
@@ -895,11 +1219,15 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
@@ -912,11 +1240,15 @@
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
@@ -929,11 +1261,15 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
@@ -946,11 +1282,15 @@
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="F10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
@@ -963,11 +1303,15 @@
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
@@ -980,11 +1324,15 @@
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
@@ -997,11 +1345,15 @@
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
@@ -1014,11 +1366,15 @@
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
@@ -1031,11 +1387,15 @@
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="F15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
@@ -1048,11 +1408,15 @@
       <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
@@ -1065,11 +1429,15 @@
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
@@ -1082,11 +1450,15 @@
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
@@ -1099,11 +1471,15 @@
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="F19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
@@ -1116,11 +1492,15 @@
       <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
@@ -1133,11 +1513,15 @@
       <c r="D21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
@@ -1150,11 +1534,15 @@
       <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
@@ -1167,11 +1555,15 @@
       <c r="D23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="F23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
@@ -1184,11 +1576,15 @@
       <c r="D24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="F24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
@@ -1201,11 +1597,15 @@
       <c r="D25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
@@ -1218,11 +1618,15 @@
       <c r="D26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="F26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
@@ -1235,11 +1639,15 @@
       <c r="D27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="F27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
@@ -1252,11 +1660,15 @@
       <c r="D28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="F28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
@@ -1269,11 +1681,15 @@
       <c r="D29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
@@ -1286,11 +1702,15 @@
       <c r="D30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="F30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
@@ -1303,11 +1723,15 @@
       <c r="D31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="F31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
@@ -1320,11 +1744,15 @@
       <c r="D32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="F32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
@@ -1337,11 +1765,15 @@
       <c r="D33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
@@ -1354,11 +1786,15 @@
       <c r="D34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="F34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
@@ -1371,11 +1807,15 @@
       <c r="D35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F35" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
@@ -1388,11 +1828,15 @@
       <c r="D36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="F36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
@@ -1405,11 +1849,15 @@
       <c r="D37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="F37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
@@ -1422,11 +1870,15 @@
       <c r="D38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
@@ -1439,11 +1891,15 @@
       <c r="D39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
@@ -1456,11 +1912,15 @@
       <c r="D40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="F40" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
@@ -1473,11 +1933,15 @@
       <c r="D41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="F41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
@@ -1490,11 +1954,15 @@
       <c r="D42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="1"/>
+      <c r="E42" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="F42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
@@ -1507,11 +1975,15 @@
       <c r="D43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="F43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
@@ -1524,17 +1996,110 @@
       <c r="D44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E13" r:id="rId1" xr:uid="{0FF07E4D-6E1C-42F3-A21B-07C2521608E7}"/>
+    <hyperlink ref="E32" r:id="rId2" xr:uid="{2DFBD8DB-E6C8-48A0-9DDB-51FABDEE6D7F}"/>
+    <hyperlink ref="E42" r:id="rId3" xr:uid="{B98F26C7-33C9-49AE-8B88-5D245693631E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1705,22 +2270,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1737,29 +2312,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/内部設計/05_ファイル構成一覧表_メガネのやばいシステム屋さん.xlsx
+++ b/doc/内部設計/05_ファイル構成一覧表_メガネのやばいシステム屋さん.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08595D5E-E187-4736-B9DF-FDEC655C7408}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350BDAA6-6E76-41CE-9C65-CECD5D9C21A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="119">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -634,6 +634,37 @@
   </si>
   <si>
     <t>change_nearest.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>便利クラス</t>
+    <rPh sb="0" eb="2">
+      <t>ベンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>useful_aiba.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>useful_katahira.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>useful_kubo.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>useful_sato.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>useful_takemura.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>useful_miyano.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1089,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G49"/>
+  <dimension ref="B2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1147,7 +1178,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B49" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B46" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2049,28 +2080,124 @@
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="B47" s="1">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="B48" s="1">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="B49" s="1">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="1">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2085,21 +2212,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2270,32 +2382,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2312,4 +2414,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/内部設計/05_ファイル構成一覧表_メガネのやばいシステム屋さん.xlsx
+++ b/doc/内部設計/05_ファイル構成一覧表_メガネのやばいシステム屋さん.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350BDAA6-6E76-41CE-9C65-CECD5D9C21A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4534873-C842-4C33-AB00-68D20AC02025}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="120">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -569,10 +569,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UserBeans].java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>login.css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -665,6 +661,14 @@
   </si>
   <si>
     <t>useful_miyano.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserBeans.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AllBeans.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -734,7 +738,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -744,6 +748,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,7 +790,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,6 +813,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1120,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G52"/>
+  <dimension ref="B2:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1178,7 +1191,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B46" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B47" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1619,7 +1632,6 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1629,34 +1641,29 @@
         <v>32</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="8">
+        <v>24</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" s="8" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1671,34 +1678,34 @@
         <v>32</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G28" s="8" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1713,34 +1720,34 @@
         <v>32</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G30" s="8" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1749,16 +1756,16 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>60</v>
@@ -1775,14 +1782,14 @@
       <c r="D32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>97</v>
+      <c r="E32" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1796,14 +1803,14 @@
       <c r="D33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>98</v>
+      <c r="E33" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1818,13 +1825,13 @@
         <v>40</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1839,13 +1846,13 @@
         <v>40</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>51</v>
+        <v>98</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1860,13 +1867,13 @@
         <v>40</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>45</v>
+        <v>99</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1881,13 +1888,13 @@
         <v>40</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1902,13 +1909,13 @@
         <v>40</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>47</v>
+        <v>101</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1923,13 +1930,13 @@
         <v>40</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>48</v>
+        <v>102</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1944,13 +1951,13 @@
         <v>40</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1959,19 +1966,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1985,14 +1992,14 @@
       <c r="D42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>107</v>
+      <c r="E42" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2006,14 +2013,14 @@
       <c r="D43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>108</v>
+      <c r="E43" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2028,13 +2035,13 @@
         <v>53</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2049,13 +2056,13 @@
         <v>53</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2070,38 +2077,39 @@
         <v>53</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F46" t="s">
-        <v>59</v>
+        <v>109</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="F47" t="s">
+        <v>59</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>27</v>
@@ -2110,18 +2118,18 @@
         <v>32</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>27</v>
@@ -2130,18 +2138,18 @@
         <v>32</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>27</v>
@@ -2150,18 +2158,18 @@
         <v>32</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>27</v>
@@ -2170,18 +2178,18 @@
         <v>32</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>27</v>
@@ -2190,12 +2198,32 @@
         <v>32</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="1">
+        <v>50</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2203,8 +2231,8 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="E13" r:id="rId1" xr:uid="{0FF07E4D-6E1C-42F3-A21B-07C2521608E7}"/>
-    <hyperlink ref="E32" r:id="rId2" xr:uid="{2DFBD8DB-E6C8-48A0-9DDB-51FABDEE6D7F}"/>
-    <hyperlink ref="E42" r:id="rId3" xr:uid="{B98F26C7-33C9-49AE-8B88-5D245693631E}"/>
+    <hyperlink ref="E33" r:id="rId2" xr:uid="{2DFBD8DB-E6C8-48A0-9DDB-51FABDEE6D7F}"/>
+    <hyperlink ref="E43" r:id="rId3" xr:uid="{B98F26C7-33C9-49AE-8B88-5D245693631E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -2212,6 +2240,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2382,22 +2425,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2414,29 +2467,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>